--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H2">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I2">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J2">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.784940333333333</v>
+        <v>2.232494</v>
       </c>
       <c r="N2">
-        <v>5.354820999999999</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O2">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P2">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q2">
-        <v>7.981042386140556</v>
+        <v>19.88293015892334</v>
       </c>
       <c r="R2">
-        <v>71.829381475265</v>
+        <v>178.94637143031</v>
       </c>
       <c r="S2">
-        <v>0.01852917463220176</v>
+        <v>0.03713894576362806</v>
       </c>
       <c r="T2">
-        <v>0.01852917463220176</v>
+        <v>0.03713894576362804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H3">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I3">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J3">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.727147</v>
       </c>
       <c r="O3">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P3">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q3">
-        <v>15.98817493420611</v>
+        <v>31.84586604420945</v>
       </c>
       <c r="R3">
-        <v>143.893574407855</v>
+        <v>286.612794397885</v>
       </c>
       <c r="S3">
-        <v>0.03711892144822381</v>
+        <v>0.05948428538239675</v>
       </c>
       <c r="T3">
-        <v>0.03711892144822381</v>
+        <v>0.05948428538239673</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,61 +667,61 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H4">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I4">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J4">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02040433333333333</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N4">
-        <v>0.061213</v>
+        <v>5.02727</v>
       </c>
       <c r="O4">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P4">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q4">
-        <v>0.09123433772722224</v>
+        <v>14.92454302976111</v>
       </c>
       <c r="R4">
-        <v>0.821109039545</v>
+        <v>134.32088726785</v>
       </c>
       <c r="S4">
-        <v>0.0002118140581657102</v>
+        <v>0.02787726907950097</v>
       </c>
       <c r="T4">
-        <v>0.0002118140581657102</v>
+        <v>0.02787726907950097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.471321666666667</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H5">
-        <v>13.413965</v>
+        <v>1.354768</v>
       </c>
       <c r="I5">
-        <v>0.08320494137658799</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J5">
-        <v>0.08320494137658797</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.614068666666667</v>
+        <v>2.232494</v>
       </c>
       <c r="N5">
-        <v>7.842206000000001</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O5">
-        <v>0.3261371290339591</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P5">
-        <v>0.3261371290339591</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q5">
-        <v>11.68834186742111</v>
+        <v>1.008170477130667</v>
       </c>
       <c r="R5">
-        <v>105.19507680679</v>
+        <v>9.073534294176001</v>
       </c>
       <c r="S5">
-        <v>0.02713622070199928</v>
+        <v>0.001883142392563449</v>
       </c>
       <c r="T5">
-        <v>0.02713622070199928</v>
+        <v>0.001883142392563449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.471321666666667</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H6">
-        <v>13.413965</v>
+        <v>1.354768</v>
       </c>
       <c r="I6">
-        <v>0.08320494137658799</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J6">
-        <v>0.08320494137658797</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.020115</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N6">
-        <v>0.060345</v>
+        <v>10.727147</v>
       </c>
       <c r="O6">
-        <v>0.002509592970594532</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P6">
-        <v>0.002509592970594532</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q6">
-        <v>0.08994063532500002</v>
+        <v>1.614755054099556</v>
       </c>
       <c r="R6">
-        <v>0.8094657179250001</v>
+        <v>14.532795486896</v>
       </c>
       <c r="S6">
-        <v>0.0002088105359974153</v>
+        <v>0.003016170146774537</v>
       </c>
       <c r="T6">
-        <v>0.0002088105359974153</v>
+        <v>0.003016170146774536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H7">
         <v>1.354768</v>
       </c>
       <c r="I7">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J7">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.784940333333333</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N7">
-        <v>5.354820999999999</v>
+        <v>5.02727</v>
       </c>
       <c r="O7">
-        <v>0.2226931997744963</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P7">
-        <v>0.2226931997744963</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q7">
-        <v>0.8060600151697778</v>
+        <v>0.7567538359288889</v>
       </c>
       <c r="R7">
-        <v>7.254540136528</v>
+        <v>6.81078452336</v>
       </c>
       <c r="S7">
-        <v>0.001871387979476517</v>
+        <v>0.00141352604693263</v>
       </c>
       <c r="T7">
-        <v>0.001871387979476517</v>
+        <v>0.00141352604693263</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4515893333333334</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H8">
-        <v>1.354768</v>
+        <v>23.344952</v>
       </c>
       <c r="I8">
-        <v>0.008403435674603098</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J8">
-        <v>0.008403435674603098</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,43 +933,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.575715666666667</v>
+        <v>2.232494</v>
       </c>
       <c r="N8">
-        <v>10.727147</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O8">
-        <v>0.4461143873682032</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P8">
-        <v>0.4461143873682032</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q8">
-        <v>1.614755054099556</v>
+        <v>17.37248842342934</v>
       </c>
       <c r="R8">
-        <v>14.532795486896</v>
+        <v>156.352395810864</v>
       </c>
       <c r="S8">
-        <v>0.003748893557763664</v>
+        <v>0.03244973955951046</v>
       </c>
       <c r="T8">
-        <v>0.003748893557763665</v>
+        <v>0.03244973955951046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4515893333333334</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H9">
-        <v>1.354768</v>
+        <v>23.344952</v>
       </c>
       <c r="I9">
-        <v>0.008403435674603098</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J9">
-        <v>0.008403435674603098</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02040433333333333</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N9">
-        <v>0.061213</v>
+        <v>10.727147</v>
       </c>
       <c r="O9">
-        <v>0.002545690852746758</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P9">
-        <v>0.002545690852746758</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q9">
-        <v>0.009214379287111113</v>
+        <v>27.82497020132711</v>
       </c>
       <c r="R9">
-        <v>0.08292941358400001</v>
+        <v>250.424731811944</v>
       </c>
       <c r="S9">
-        <v>2.139254932848288E-05</v>
+        <v>0.05197373077920686</v>
       </c>
       <c r="T9">
-        <v>2.139254932848288E-05</v>
+        <v>0.05197373077920685</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4515893333333334</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H10">
-        <v>1.354768</v>
+        <v>23.344952</v>
       </c>
       <c r="I10">
-        <v>0.008403435674603098</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J10">
-        <v>0.008403435674603098</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.614068666666667</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N10">
-        <v>7.842206000000001</v>
+        <v>5.02727</v>
       </c>
       <c r="O10">
-        <v>0.3261371290339591</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P10">
-        <v>0.3261371290339591</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q10">
-        <v>1.180485526467556</v>
+        <v>13.04015298233778</v>
       </c>
       <c r="R10">
-        <v>10.624369738208</v>
+        <v>117.36137684104</v>
       </c>
       <c r="S10">
-        <v>0.002740672384936606</v>
+        <v>0.02435745287487747</v>
       </c>
       <c r="T10">
-        <v>0.002740672384936606</v>
+        <v>0.02435745287487747</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4515893333333334</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H11">
-        <v>1.354768</v>
+        <v>11.677702</v>
       </c>
       <c r="I11">
-        <v>0.008403435674603098</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J11">
-        <v>0.008403435674603098</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.020115</v>
+        <v>2.232494</v>
       </c>
       <c r="N11">
-        <v>0.060345</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O11">
-        <v>0.002509592970594532</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P11">
-        <v>0.002509592970594532</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q11">
-        <v>0.009083719440000002</v>
+        <v>8.690133216262669</v>
       </c>
       <c r="R11">
-        <v>0.08175347496000002</v>
+        <v>78.21119894636401</v>
       </c>
       <c r="S11">
-        <v>2.108920309782725E-05</v>
+        <v>0.01623213397712596</v>
       </c>
       <c r="T11">
-        <v>2.108920309782725E-05</v>
+        <v>0.01623213397712595</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.212987666666667</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H12">
-        <v>18.638963</v>
+        <v>11.677702</v>
       </c>
       <c r="I12">
-        <v>0.1156148703038507</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J12">
-        <v>0.1156148703038507</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.784940333333333</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N12">
-        <v>5.354820999999999</v>
+        <v>10.727147</v>
       </c>
       <c r="O12">
-        <v>0.2226931997744963</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P12">
-        <v>0.2226931997744963</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q12">
-        <v>11.08981227673589</v>
+        <v>13.91871399735489</v>
       </c>
       <c r="R12">
-        <v>99.80831049062299</v>
+        <v>125.268425976194</v>
       </c>
       <c r="S12">
-        <v>0.0257466454094779</v>
+        <v>0.02599850022685014</v>
       </c>
       <c r="T12">
-        <v>0.0257466454094779</v>
+        <v>0.02599850022685013</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.212987666666667</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H13">
-        <v>18.638963</v>
+        <v>11.677702</v>
       </c>
       <c r="I13">
-        <v>0.1156148703038507</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J13">
-        <v>0.1156148703038507</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.575715666666667</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N13">
-        <v>10.727147</v>
+        <v>5.02727</v>
       </c>
       <c r="O13">
-        <v>0.4461143873682032</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P13">
-        <v>0.4461143873682032</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q13">
-        <v>22.21587733650678</v>
+        <v>6.522995659282222</v>
       </c>
       <c r="R13">
-        <v>199.942896028561</v>
+        <v>58.70696093354</v>
       </c>
       <c r="S13">
-        <v>0.05157745703625661</v>
+        <v>0.01218417909584318</v>
       </c>
       <c r="T13">
-        <v>0.05157745703625662</v>
+        <v>0.01218417909584318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.212987666666667</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H14">
-        <v>18.638963</v>
+        <v>130.486774</v>
       </c>
       <c r="I14">
-        <v>0.1156148703038507</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J14">
-        <v>0.1156148703038507</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.02040433333333333</v>
+        <v>2.232494</v>
       </c>
       <c r="N14">
-        <v>0.061213</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O14">
-        <v>0.002545690852746758</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P14">
-        <v>0.002545690852746758</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q14">
-        <v>0.1267718713465556</v>
+        <v>97.10364667811868</v>
       </c>
       <c r="R14">
-        <v>1.140946842119</v>
+        <v>873.9328201030681</v>
       </c>
       <c r="S14">
-        <v>0.0002943197177740154</v>
+        <v>0.1813780483361329</v>
       </c>
       <c r="T14">
-        <v>0.0002943197177740154</v>
+        <v>0.1813780483361328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.212987666666667</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H15">
-        <v>18.638963</v>
+        <v>130.486774</v>
       </c>
       <c r="I15">
-        <v>0.1156148703038507</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J15">
-        <v>0.1156148703038507</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.614068666666667</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N15">
-        <v>7.842206000000001</v>
+        <v>10.727147</v>
       </c>
       <c r="O15">
-        <v>0.3261371290339591</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P15">
-        <v>0.3261371290339591</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q15">
-        <v>16.24117638581978</v>
+        <v>155.5278673615309</v>
       </c>
       <c r="R15">
-        <v>146.170587472378</v>
+        <v>1399.750806253778</v>
       </c>
       <c r="S15">
-        <v>0.03770630187453139</v>
+        <v>0.2905075350818117</v>
       </c>
       <c r="T15">
-        <v>0.0377063018745314</v>
+        <v>0.2905075350818116</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.212987666666667</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H16">
-        <v>18.638963</v>
+        <v>130.486774</v>
       </c>
       <c r="I16">
-        <v>0.1156148703038507</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J16">
-        <v>0.1156148703038507</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.020115</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N16">
-        <v>0.060345</v>
+        <v>5.02727</v>
       </c>
       <c r="O16">
-        <v>0.002509592970594532</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P16">
-        <v>0.002509592970594532</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q16">
-        <v>0.124974246915</v>
+        <v>72.88802714744222</v>
       </c>
       <c r="R16">
-        <v>1.124768222235</v>
+        <v>655.99224432698</v>
       </c>
       <c r="S16">
-        <v>0.0002901462658107421</v>
+        <v>0.1361461547875441</v>
       </c>
       <c r="T16">
-        <v>0.0002901462658107421</v>
+        <v>0.1361461547875441</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.879176</v>
+        <v>7.007517</v>
       </c>
       <c r="H17">
-        <v>11.637528</v>
+        <v>21.022551</v>
       </c>
       <c r="I17">
-        <v>0.072185952103528</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J17">
-        <v>0.072185952103528</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.784940333333333</v>
+        <v>2.232494</v>
       </c>
       <c r="N17">
-        <v>5.354820999999999</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O17">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P17">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q17">
-        <v>6.924097702498665</v>
+        <v>15.644239657398</v>
       </c>
       <c r="R17">
-        <v>62.31687932248799</v>
+        <v>140.798156916582</v>
       </c>
       <c r="S17">
-        <v>0.01607532065270318</v>
+        <v>0.02922157667432883</v>
       </c>
       <c r="T17">
-        <v>0.01607532065270319</v>
+        <v>0.02922157667432883</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.879176</v>
+        <v>7.007517</v>
       </c>
       <c r="H18">
-        <v>11.637528</v>
+        <v>21.022551</v>
       </c>
       <c r="I18">
-        <v>0.072185952103528</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J18">
-        <v>0.072185952103528</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,37 +1559,37 @@
         <v>10.727147</v>
       </c>
       <c r="O18">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P18">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q18">
-        <v>13.87083039695733</v>
+        <v>25.056888321333</v>
       </c>
       <c r="R18">
-        <v>124.837473572616</v>
+        <v>225.511994891997</v>
       </c>
       <c r="S18">
-        <v>0.03220319179925586</v>
+        <v>0.04680328346642761</v>
       </c>
       <c r="T18">
-        <v>0.03220319179925586</v>
+        <v>0.04680328346642759</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,790 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.879176</v>
+        <v>7.007517</v>
       </c>
       <c r="H19">
-        <v>11.637528</v>
+        <v>21.022551</v>
       </c>
       <c r="I19">
-        <v>0.072185952103528</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J19">
-        <v>0.072185952103528</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.02040433333333333</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N19">
-        <v>0.061213</v>
+        <v>5.02727</v>
       </c>
       <c r="O19">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P19">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q19">
-        <v>0.07915200016266666</v>
+        <v>11.74289332953</v>
       </c>
       <c r="R19">
-        <v>0.7123680014639999</v>
+        <v>105.68603996577</v>
       </c>
       <c r="S19">
-        <v>0.0001837631179667668</v>
+        <v>0.02193432632854453</v>
       </c>
       <c r="T19">
-        <v>0.0001837631179667668</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>3.879176</v>
-      </c>
-      <c r="H20">
-        <v>11.637528</v>
-      </c>
-      <c r="I20">
-        <v>0.072185952103528</v>
-      </c>
-      <c r="J20">
-        <v>0.072185952103528</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2.614068666666667</v>
-      </c>
-      <c r="N20">
-        <v>7.842206000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="P20">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="Q20">
-        <v>10.14043243408533</v>
-      </c>
-      <c r="R20">
-        <v>91.26389190676801</v>
-      </c>
-      <c r="S20">
-        <v>0.0235425191756275</v>
-      </c>
-      <c r="T20">
-        <v>0.02354251917562751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.879176</v>
-      </c>
-      <c r="H21">
-        <v>11.637528</v>
-      </c>
-      <c r="I21">
-        <v>0.072185952103528</v>
-      </c>
-      <c r="J21">
-        <v>0.072185952103528</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.020115</v>
-      </c>
-      <c r="N21">
-        <v>0.060345</v>
-      </c>
-      <c r="O21">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="P21">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="Q21">
-        <v>0.07802962524</v>
-      </c>
-      <c r="R21">
-        <v>0.70226662716</v>
-      </c>
-      <c r="S21">
-        <v>0.0001811573579746875</v>
-      </c>
-      <c r="T21">
-        <v>0.0001811573579746875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>32.24961033333334</v>
-      </c>
-      <c r="H22">
-        <v>96.74883100000001</v>
-      </c>
-      <c r="I22">
-        <v>0.6001194137310197</v>
-      </c>
-      <c r="J22">
-        <v>0.6001194137310197</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1.784940333333333</v>
-      </c>
-      <c r="N22">
-        <v>5.354820999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="P22">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="Q22">
-        <v>57.56363021825011</v>
-      </c>
-      <c r="R22">
-        <v>518.072671964251</v>
-      </c>
-      <c r="S22">
-        <v>0.1336425124905556</v>
-      </c>
-      <c r="T22">
-        <v>0.1336425124905556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>32.24961033333334</v>
-      </c>
-      <c r="H23">
-        <v>96.74883100000001</v>
-      </c>
-      <c r="I23">
-        <v>0.6001194137310197</v>
-      </c>
-      <c r="J23">
-        <v>0.6001194137310197</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.575715666666667</v>
-      </c>
-      <c r="N23">
-        <v>10.727147</v>
-      </c>
-      <c r="O23">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="P23">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="Q23">
-        <v>115.3154369127952</v>
-      </c>
-      <c r="R23">
-        <v>1037.838932215157</v>
-      </c>
-      <c r="S23">
-        <v>0.2677219046043791</v>
-      </c>
-      <c r="T23">
-        <v>0.2677219046043792</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>32.24961033333334</v>
-      </c>
-      <c r="H24">
-        <v>96.74883100000001</v>
-      </c>
-      <c r="I24">
-        <v>0.6001194137310197</v>
-      </c>
-      <c r="J24">
-        <v>0.6001194137310197</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.02040433333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.061213</v>
-      </c>
-      <c r="O24">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="P24">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="Q24">
-        <v>0.6580317991114445</v>
-      </c>
-      <c r="R24">
-        <v>5.922286192003</v>
-      </c>
-      <c r="S24">
-        <v>0.001527718502090804</v>
-      </c>
-      <c r="T24">
-        <v>0.001527718502090804</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>32.24961033333334</v>
-      </c>
-      <c r="H25">
-        <v>96.74883100000001</v>
-      </c>
-      <c r="I25">
-        <v>0.6001194137310197</v>
-      </c>
-      <c r="J25">
-        <v>0.6001194137310197</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.614068666666667</v>
-      </c>
-      <c r="N25">
-        <v>7.842206000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="P25">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="Q25">
-        <v>84.30269588457624</v>
-      </c>
-      <c r="R25">
-        <v>758.7242629611861</v>
-      </c>
-      <c r="S25">
-        <v>0.1957212226717775</v>
-      </c>
-      <c r="T25">
-        <v>0.1957212226717775</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>32.24961033333334</v>
-      </c>
-      <c r="H26">
-        <v>96.74883100000001</v>
-      </c>
-      <c r="I26">
-        <v>0.6001194137310197</v>
-      </c>
-      <c r="J26">
-        <v>0.6001194137310197</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.020115</v>
-      </c>
-      <c r="N26">
-        <v>0.060345</v>
-      </c>
-      <c r="O26">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="P26">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="Q26">
-        <v>0.6487009118550001</v>
-      </c>
-      <c r="R26">
-        <v>5.838308206695001</v>
-      </c>
-      <c r="S26">
-        <v>0.001506055462216679</v>
-      </c>
-      <c r="T26">
-        <v>0.001506055462216679</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>6.473970333333334</v>
-      </c>
-      <c r="H27">
-        <v>19.421911</v>
-      </c>
-      <c r="I27">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="J27">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.784940333333333</v>
-      </c>
-      <c r="N27">
-        <v>5.354820999999999</v>
-      </c>
-      <c r="O27">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="P27">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="Q27">
-        <v>11.55565076477011</v>
-      </c>
-      <c r="R27">
-        <v>104.000856882931</v>
-      </c>
-      <c r="S27">
-        <v>0.02682815861008138</v>
-      </c>
-      <c r="T27">
-        <v>0.02682815861008139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>6.473970333333334</v>
-      </c>
-      <c r="H28">
-        <v>19.421911</v>
-      </c>
-      <c r="I28">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="J28">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>3.575715666666667</v>
-      </c>
-      <c r="N28">
-        <v>10.727147</v>
-      </c>
-      <c r="O28">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="P28">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="Q28">
-        <v>23.14907714643522</v>
-      </c>
-      <c r="R28">
-        <v>208.341694317917</v>
-      </c>
-      <c r="S28">
-        <v>0.05374401892232415</v>
-      </c>
-      <c r="T28">
-        <v>0.05374401892232416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>6.473970333333334</v>
-      </c>
-      <c r="H29">
-        <v>19.421911</v>
-      </c>
-      <c r="I29">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="J29">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.02040433333333333</v>
-      </c>
-      <c r="N29">
-        <v>0.061213</v>
-      </c>
-      <c r="O29">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="P29">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="Q29">
-        <v>0.1320970486714445</v>
-      </c>
-      <c r="R29">
-        <v>1.188873438043</v>
-      </c>
-      <c r="S29">
-        <v>0.0003066829074209786</v>
-      </c>
-      <c r="T29">
-        <v>0.0003066829074209786</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>6.473970333333334</v>
-      </c>
-      <c r="H30">
-        <v>19.421911</v>
-      </c>
-      <c r="I30">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="J30">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2.614068666666667</v>
-      </c>
-      <c r="N30">
-        <v>7.842206000000001</v>
-      </c>
-      <c r="O30">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="P30">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="Q30">
-        <v>16.92340299729623</v>
-      </c>
-      <c r="R30">
-        <v>152.310626975666</v>
-      </c>
-      <c r="S30">
-        <v>0.03929019222508687</v>
-      </c>
-      <c r="T30">
-        <v>0.03929019222508688</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>6.473970333333334</v>
-      </c>
-      <c r="H31">
-        <v>19.421911</v>
-      </c>
-      <c r="I31">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="J31">
-        <v>0.1204713868104106</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.020115</v>
-      </c>
-      <c r="N31">
-        <v>0.060345</v>
-      </c>
-      <c r="O31">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="P31">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="Q31">
-        <v>0.130223913255</v>
-      </c>
-      <c r="R31">
-        <v>1.172015219295</v>
-      </c>
-      <c r="S31">
-        <v>0.0003023341454971812</v>
-      </c>
-      <c r="T31">
-        <v>0.0003023341454971812</v>
+        <v>0.02193432632854453</v>
       </c>
     </row>
   </sheetData>
